--- a/data/trans_orig/ED_ADU-Clase-trans_orig.xlsx
+++ b/data/trans_orig/ED_ADU-Clase-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>43,9; 46,8</t>
+          <t>43,86; 46,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,71; 46,61</t>
+          <t>43,65; 46,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>45,8; 48,7</t>
+          <t>45,85; 48,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>49,54; 52,56</t>
+          <t>49,38; 52,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>40,34; 43,54</t>
+          <t>40,34; 43,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>39,32; 42,44</t>
+          <t>39,27; 42,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>42,35; 45,7</t>
+          <t>42,27; 45,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>46,15; 48,88</t>
+          <t>46,32; 49,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>42,98; 45,11</t>
+          <t>42,81; 45,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>42,22; 44,34</t>
+          <t>42,26; 44,37</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>44,59; 46,88</t>
+          <t>44,54; 46,82</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>48,5; 50,51</t>
+          <t>48,39; 50,45</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>43,5; 46,95</t>
+          <t>43,52; 46,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,23; 47,6</t>
+          <t>44,26; 47,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,52; 48,45</t>
+          <t>45,64; 48,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>49,18; 52,65</t>
+          <t>49,36; 52,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,64; 38,35</t>
+          <t>35,69; 38,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,0; 42,81</t>
+          <t>39,98; 42,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>41,9; 44,49</t>
+          <t>41,82; 44,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>45,09; 47,7</t>
+          <t>45,24; 47,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>39,94; 42,16</t>
+          <t>39,94; 42,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>42,73; 45,02</t>
+          <t>42,79; 45,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>44,0; 46,08</t>
+          <t>44,05; 46,16</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>47,86; 50,19</t>
+          <t>47,77; 49,95</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>43,69; 46,36</t>
+          <t>43,63; 46,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>46,23; 48,92</t>
+          <t>46,03; 48,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>49,53; 52,23</t>
+          <t>49,52; 52,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>50,55; 53,03</t>
+          <t>50,44; 53,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>42,87; 47,61</t>
+          <t>42,91; 47,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>46,28; 50,59</t>
+          <t>46,43; 50,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>48,68; 54,67</t>
+          <t>48,82; 54,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>52,92; 57,71</t>
+          <t>52,87; 57,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>43,9; 46,21</t>
+          <t>43,87; 46,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>46,57; 48,9</t>
+          <t>46,51; 48,94</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>49,8; 52,32</t>
+          <t>49,83; 52,51</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>51,33; 53,76</t>
+          <t>51,23; 53,9</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,87; 48,0</t>
+          <t>45,92; 47,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>46,45; 48,54</t>
+          <t>46,35; 48,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>47,23; 49,15</t>
+          <t>47,3; 49,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>48,95; 51,61</t>
+          <t>49,13; 51,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,08; 43,5</t>
+          <t>41,13; 43,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,96; 42,2</t>
+          <t>39,98; 42,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,81; 44,19</t>
+          <t>41,79; 44,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>46,56; 58,62</t>
+          <t>46,56; 58,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>44,37; 46,01</t>
+          <t>44,39; 46,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>44,16; 45,79</t>
+          <t>44,14; 45,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>45,26; 46,76</t>
+          <t>45,26; 46,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>48,62; 55,67</t>
+          <t>48,66; 55,4</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>41,57; 45,52</t>
+          <t>41,6; 45,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>44,96; 48,22</t>
+          <t>44,85; 48,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>46,52; 49,42</t>
+          <t>46,62; 49,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>47,62; 51,42</t>
+          <t>47,39; 51,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>44,99; 47,85</t>
+          <t>44,93; 47,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>49,31; 51,85</t>
+          <t>49,11; 51,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>49,8; 52,37</t>
+          <t>49,71; 52,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48,23; 54,63</t>
+          <t>47,37; 54,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>44,12; 46,47</t>
+          <t>44,09; 46,44</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>47,97; 49,93</t>
+          <t>47,88; 49,92</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>48,53; 50,58</t>
+          <t>48,71; 50,7</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>48,3; 52,85</t>
+          <t>48,51; 52,89</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,25; 22,36</t>
+          <t>20,3; 22,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,16; 22,08</t>
+          <t>20,14; 22,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,45; 22,02</t>
+          <t>20,39; 22,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,21; 24,04</t>
+          <t>21,22; 23,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>50,1; 52,32</t>
+          <t>49,98; 52,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>50,52; 53,28</t>
+          <t>50,55; 53,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>51,6; 54,39</t>
+          <t>51,63; 54,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>52,45; 56,15</t>
+          <t>52,33; 56,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>44,24; 46,42</t>
+          <t>44,23; 46,51</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>44,72; 47,31</t>
+          <t>44,7; 47,44</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>44,86; 47,82</t>
+          <t>44,98; 47,8</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>44,5; 48,4</t>
+          <t>44,57; 48,56</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>42,75; 44,05</t>
+          <t>42,81; 44,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>44,14; 45,39</t>
+          <t>44,19; 45,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>45,41; 46,56</t>
+          <t>45,44; 46,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>47,97; 49,6</t>
+          <t>48,0; 49,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>45,14; 46,4</t>
+          <t>45,22; 46,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>46,4; 47,68</t>
+          <t>46,42; 47,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>47,62; 48,93</t>
+          <t>47,54; 48,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>50,06; 54,24</t>
+          <t>50,14; 54,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>44,18; 45,05</t>
+          <t>44,2; 45,08</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>45,49; 46,43</t>
+          <t>45,46; 46,33</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>46,71; 47,64</t>
+          <t>46,71; 47,6</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>49,37; 51,93</t>
+          <t>49,35; 51,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/ED_ADU-Clase-trans_orig.xlsx
+++ b/data/trans_orig/ED_ADU-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
